--- a/06_Face_recognition_spoof_detection/Face_spoof_detection_cam/exe/resnet50_classifier_cam/resnet50_classifier_cam_summary.xlsx
+++ b/06_Face_recognition_spoof_detection/Face_spoof_detection_cam/exe/resnet50_classifier_cam/resnet50_classifier_cam_summary.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/conv1/Conv_output_0</t>
+          <t>496</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/maxpool/MaxPool_output_0</t>
+          <t>324</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/conv1/Conv_output_0</t>
+          <t>499</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/conv2/Conv_output_0</t>
+          <t>502</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/conv3/Conv_output_0</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/downsample/downsample.0/Conv_output_0</t>
+          <t>508</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/Add_output_0</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv1/Conv_output_0</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv2/Conv_output_0</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv3/Conv_output_0</t>
+          <t>517</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/Add_output_0</t>
+          <t>345</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv1/Conv_output_0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv2/Conv_output_0</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv3/Conv_output_0</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/Add_output_0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv1/Conv_output_0</t>
+          <t>529</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv2/Conv_output_0</t>
+          <t>532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv3/Conv_output_0</t>
+          <t>535</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/downsample/downsample.0/Conv_output_0</t>
+          <t>538</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/Add_output_0</t>
+          <t>367</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv1/Conv_output_0</t>
+          <t>541</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv2/Conv_output_0</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv3/Conv_output_0</t>
+          <t>547</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/Add_output_0</t>
+          <t>377</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv1/Conv_output_0</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv2/Conv_output_0</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv3/Conv_output_0</t>
+          <t>556</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/Add_output_0</t>
+          <t>387</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv1/Conv_output_0</t>
+          <t>559</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv2/Conv_output_0</t>
+          <t>562</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv3/Conv_output_0</t>
+          <t>565</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/Add_output_0</t>
+          <t>397</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv1/Conv_output_0</t>
+          <t>568</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv2/Conv_output_0</t>
+          <t>571</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv3/Conv_output_0</t>
+          <t>574</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/downsample/downsample.0/Conv_output_0</t>
+          <t>577</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/Add_output_0</t>
+          <t>409</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv1/Conv_output_0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv2/Conv_output_0</t>
+          <t>583</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv3/Conv_output_0</t>
+          <t>586</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/Add_output_0</t>
+          <t>419</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv1/Conv_output_0</t>
+          <t>589</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv2/Conv_output_0</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv3/Conv_output_0</t>
+          <t>595</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/Add_output_0</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv1/Conv_output_0</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv2/Conv_output_0</t>
+          <t>601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv3/Conv_output_0</t>
+          <t>604</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/Add_output_0</t>
+          <t>439</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv1/Conv_output_0</t>
+          <t>607</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv2/Conv_output_0</t>
+          <t>610</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv3/Conv_output_0</t>
+          <t>613</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/Add_output_0</t>
+          <t>449</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv1/Conv_output_0</t>
+          <t>616</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv2/Conv_output_0</t>
+          <t>619</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv3/Conv_output_0</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/Add_output_0</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv1/Conv_output_0</t>
+          <t>625</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv2/Conv_output_0</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv3/Conv_output_0</t>
+          <t>631</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/downsample/downsample.0/Conv_output_0</t>
+          <t>634</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/Add_output_0</t>
+          <t>471</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv1/Conv_output_0</t>
+          <t>637</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv2/Conv_output_0</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv3/Conv_output_0</t>
+          <t>643</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/Add_output_0</t>
+          <t>481</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv1/Conv_output_0</t>
+          <t>646</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv2/Conv_output_0</t>
+          <t>649</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv3/Conv_output_0</t>
+          <t>652</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/Add_output_0</t>
+          <t>491</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/avgpool/GlobalAveragePool_output_0</t>
+          <t>493</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
